--- a/data/industry/TrendForce/PV.xlsx
+++ b/data/industry/TrendForce/PV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF476AA3-6339-4915-A258-0FC1C176E920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00430BE0-992C-45BD-AD00-100B921B1E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
   <si>
     <t>Item</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -190,10 +190,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -260,19 +261,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -289,6 +284,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -573,198 +578,233 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="9" style="11"/>
-    <col min="22" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="11.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="9" style="13"/>
+    <col min="17" max="21" width="9" style="9"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>46043</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>46043</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="12">
         <v>54</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="12">
         <v>5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="12">
         <v>53</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="12">
         <v>52</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="12">
         <v>49</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="12">
         <v>52</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="12">
         <v>51</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="12">
         <v>5</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="12">
         <v>5</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="12">
         <v>22</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="12">
         <v>13.1</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="12">
         <v>17.5</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="A4" s="6">
+        <v>46050</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46050</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="12">
+        <v>54</v>
+      </c>
+      <c r="F4" s="12">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>53</v>
+      </c>
+      <c r="H4" s="12">
+        <v>52</v>
+      </c>
+      <c r="I4" s="12">
+        <v>49</v>
+      </c>
+      <c r="J4" s="12">
+        <v>52</v>
+      </c>
+      <c r="K4" s="12">
+        <v>51</v>
+      </c>
+      <c r="L4" s="12">
+        <v>5</v>
+      </c>
+      <c r="M4" s="12">
+        <v>5</v>
+      </c>
+      <c r="N4" s="12">
+        <v>22</v>
+      </c>
+      <c r="O4" s="12">
+        <v>13.1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -786,57 +826,57 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="9" style="11"/>
-    <col min="22" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="11.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="9" style="9"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="N1" s="2"/>
@@ -844,119 +884,147 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>46043</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>46043</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>1.35</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>1.25</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>1.3</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>1.65</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>1.55</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>1.6</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>1.45</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>1.35</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>1.4</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="A4" s="6">
+        <v>46050</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46050</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -975,33 +1043,33 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="9" style="11"/>
-    <col min="22" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="11.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="9" style="9"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1036,119 +1104,147 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>46043</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>46043</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.42</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>0.41</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>0.41</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>0.42</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0.41</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>0.41</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>0.42</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>0.41</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>0.41</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="A4" s="6">
+        <v>46050</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46050</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1167,48 +1263,48 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="9" style="11"/>
-    <col min="22" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="11.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="9" style="9"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K1" s="2"/>
@@ -1219,107 +1315,129 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>46043</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>46043</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.82</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>0.78</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>0.79</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>0.75</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0.71</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>0.72</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="A4" s="6">
+        <v>46050</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46050</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1341,30 +1459,30 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="9" style="11"/>
-    <col min="22" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="11.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="9" style="9"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1399,119 +1517,147 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>46043</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>46043</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>12</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>11</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>11.5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>19</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>18</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>18.5</v>
       </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="K3" s="4">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4">
         <v>9</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>9.5</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="A4" s="6">
+        <v>46050</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46050</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/industry/TrendForce/PV.xlsx
+++ b/data/industry/TrendForce/PV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00430BE0-992C-45BD-AD00-100B921B1E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17DC72-C04B-40F1-ADEB-619EA635CB7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
   <si>
     <t>Item</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -184,6 +184,9 @@
   <si>
     <t>2.0 Rear PV Glass (RMB)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTC+8</t>
   </si>
 </sst>
 </file>
@@ -284,16 +287,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -581,7 +584,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,100 +593,100 @@
     <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="9" style="13"/>
+    <col min="5" max="16" width="9" style="11"/>
     <col min="17" max="21" width="9" style="9"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="12" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q2" s="4"/>
@@ -705,40 +708,40 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>54</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>53</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>52</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <v>49</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <v>52</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>51</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="10">
         <v>5</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>5</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="10">
         <v>22</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="10">
         <v>13.1</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="10">
         <v>17.5</v>
       </c>
       <c r="Q3" s="4"/>
@@ -760,40 +763,40 @@
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>54</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>5</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>53</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <v>52</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>49</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <v>52</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <v>51</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <v>5</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <v>5</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>22</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="10">
         <v>13.1</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="10">
         <v>17.5</v>
       </c>
       <c r="Q4" s="4"/>
@@ -803,8 +806,54 @@
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6">
+        <v>46057</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46057</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="11">
+        <v>54</v>
+      </c>
+      <c r="F5" s="11">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11">
+        <v>53</v>
+      </c>
+      <c r="H5" s="11">
+        <v>52</v>
+      </c>
+      <c r="I5" s="11">
+        <v>49</v>
+      </c>
+      <c r="J5" s="11">
+        <v>52</v>
+      </c>
+      <c r="K5" s="11">
+        <v>51</v>
+      </c>
+      <c r="L5" s="11">
+        <v>5</v>
+      </c>
+      <c r="M5" s="11">
+        <v>5</v>
+      </c>
+      <c r="N5" s="11">
+        <v>22</v>
+      </c>
+      <c r="O5" s="11">
+        <v>13.1</v>
+      </c>
+      <c r="P5" s="11">
+        <v>17.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -815,6 +864,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -826,7 +876,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:D4"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -840,16 +890,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -884,10 +934,10 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1023,8 +1073,45 @@
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6">
+        <v>46057</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46057</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1.3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1046,7 +1133,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1060,16 +1147,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1104,10 +1191,10 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1243,8 +1330,45 @@
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6">
+        <v>46057</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46057</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1263,7 +1387,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1277,16 +1401,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1315,10 +1439,10 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1436,8 +1560,36 @@
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6">
+        <v>46057</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46057</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1459,7 +1611,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1473,16 +1625,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1517,10 +1669,10 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1656,8 +1808,45 @@
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6">
+        <v>46057</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46057</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9">
+        <v>11</v>
+      </c>
+      <c r="G5" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>19</v>
+      </c>
+      <c r="I5" s="9">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9">
+        <v>18.5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>10</v>
+      </c>
+      <c r="L5" s="9">
+        <v>9</v>
+      </c>
+      <c r="M5" s="9">
+        <v>9.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/industry/TrendForce/PV.xlsx
+++ b/data/industry/TrendForce/PV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17DC72-C04B-40F1-ADEB-619EA635CB7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47078207-EA42-4128-843A-915DD8F96D9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
   <si>
     <t>Item</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -264,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -297,6 +297,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -578,13 +582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D1B81D-D2B5-4136-B018-10098EFAD710}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -593,7 +597,8 @@
     <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="9" style="11"/>
+    <col min="5" max="14" width="9" style="15"/>
+    <col min="15" max="16" width="9" style="11"/>
     <col min="17" max="21" width="9" style="9"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
@@ -611,34 +616,34 @@
       <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="10" t="s">
@@ -653,34 +658,34 @@
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="10" t="s">
@@ -708,34 +713,34 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="14">
         <v>54</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="14">
         <v>5</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="14">
         <v>53</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="14">
         <v>52</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="14">
         <v>49</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="14">
         <v>52</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="14">
         <v>51</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="14">
         <v>5</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="14">
         <v>5</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="14">
         <v>22</v>
       </c>
       <c r="O3" s="10">
@@ -763,34 +768,34 @@
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="14">
         <v>54</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="14">
         <v>5</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="14">
         <v>53</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="14">
         <v>52</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="14">
         <v>49</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="14">
         <v>52</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="14">
         <v>51</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="14">
         <v>5</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="14">
         <v>5</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="14">
         <v>22</v>
       </c>
       <c r="O4" s="10">
@@ -818,40 +823,90 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>54</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="15">
         <v>5</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="15">
         <v>53</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="15">
         <v>52</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="15">
         <v>49</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="15">
         <v>52</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="15">
         <v>51</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="15">
         <v>5</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="15">
         <v>5</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="15">
         <v>22</v>
       </c>
       <c r="O5" s="11">
         <v>13.1</v>
       </c>
       <c r="P5" s="11">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46064</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46064</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15">
+        <v>54</v>
+      </c>
+      <c r="F6" s="15">
+        <v>5</v>
+      </c>
+      <c r="G6" s="15">
+        <v>53</v>
+      </c>
+      <c r="H6" s="15">
+        <v>52</v>
+      </c>
+      <c r="I6" s="15">
+        <v>49</v>
+      </c>
+      <c r="J6" s="15">
+        <v>52</v>
+      </c>
+      <c r="K6" s="15">
+        <v>51</v>
+      </c>
+      <c r="L6" s="15">
+        <v>5</v>
+      </c>
+      <c r="M6" s="15">
+        <v>5</v>
+      </c>
+      <c r="N6" s="15">
+        <v>22</v>
+      </c>
+      <c r="O6" s="11">
+        <v>13.1</v>
+      </c>
+      <c r="P6" s="11">
         <v>17.5</v>
       </c>
     </row>
@@ -870,13 +925,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF786EB3-DEA4-49FB-B1F0-2BA953D252F0}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1113,6 +1168,47 @@
         <v>1.3</v>
       </c>
     </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46064</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46064</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -1127,13 +1223,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6FBB9-AFC2-4455-9148-BD1E8CC7D9AD}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1370,6 +1466,47 @@
         <v>0.42</v>
       </c>
     </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46064</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46064</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -1384,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F01E61-2CE9-42E3-8B86-FF77C69F477A}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1591,6 +1728,38 @@
         <v>0.76</v>
       </c>
     </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46064</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46064</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.76</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -1605,13 +1774,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38928A9-57B3-4E00-9ADC-24F31F32D1A1}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1620,7 +1789,13 @@
     <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="9" style="9"/>
+    <col min="5" max="6" width="9" style="15"/>
+    <col min="7" max="7" width="9" style="11"/>
+    <col min="8" max="9" width="9" style="15"/>
+    <col min="10" max="10" width="9" style="11"/>
+    <col min="11" max="12" width="9" style="15"/>
+    <col min="13" max="13" width="9" style="11"/>
+    <col min="14" max="21" width="9" style="9"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1637,31 +1812,31 @@
       <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="10" t="s">
         <v>39</v>
       </c>
       <c r="N1" s="2"/>
@@ -1673,31 +1848,31 @@
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="4"/>
@@ -1722,31 +1897,31 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="14">
         <v>12</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="14">
         <v>11</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="10">
         <v>11.5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="14">
         <v>19</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="14">
         <v>18</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="10">
         <v>18.5</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="14">
         <v>10</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="14">
         <v>9</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="10">
         <v>9.5</v>
       </c>
       <c r="N3" s="4"/>
@@ -1771,31 +1946,31 @@
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="14">
         <v>12</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="14">
         <v>11</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="10">
         <v>11.5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="14">
         <v>19</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="14">
         <v>18</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="10">
         <v>18.5</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="14">
         <v>10</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="14">
         <v>9</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="10">
         <v>9.5</v>
       </c>
       <c r="N4" s="4"/>
@@ -1820,31 +1995,72 @@
       <c r="D5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="15">
         <v>12</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="15">
         <v>11</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="11">
         <v>11.5</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="15">
         <v>19</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="15">
         <v>18</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="11">
         <v>18.5</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="15">
         <v>10</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="15">
         <v>9</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="11">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46064</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46064</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15">
+        <v>12</v>
+      </c>
+      <c r="F6" s="15">
+        <v>11</v>
+      </c>
+      <c r="G6" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>19</v>
+      </c>
+      <c r="I6" s="15">
+        <v>18</v>
+      </c>
+      <c r="J6" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="K6" s="15">
+        <v>10</v>
+      </c>
+      <c r="L6" s="15">
+        <v>9</v>
+      </c>
+      <c r="M6" s="11">
         <v>9.5</v>
       </c>
     </row>

--- a/data/industry/TrendForce/PV.xlsx
+++ b/data/industry/TrendForce/PV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47078207-EA42-4128-843A-915DD8F96D9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233262B-1DFC-4FD8-A69F-C3D492A58B74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
   <si>
     <t>Item</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -291,16 +291,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -582,13 +582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D1B81D-D2B5-4136-B018-10098EFAD710}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -597,53 +597,53 @@
     <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="9" style="15"/>
+    <col min="5" max="14" width="9" style="13"/>
     <col min="15" max="16" width="9" style="11"/>
     <col min="17" max="21" width="9" style="9"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="10" t="s">
@@ -654,38 +654,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="10" t="s">
@@ -713,34 +713,34 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>54</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>5</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>53</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>52</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <v>49</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <v>52</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <v>51</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <v>5</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="12">
         <v>5</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="12">
         <v>22</v>
       </c>
       <c r="O3" s="10">
@@ -768,34 +768,34 @@
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>54</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>5</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>53</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>52</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <v>49</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <v>52</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="12">
         <v>51</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <v>5</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="12">
         <v>5</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="12">
         <v>22</v>
       </c>
       <c r="O4" s="10">
@@ -823,34 +823,34 @@
       <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>54</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>5</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>53</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>52</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>49</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <v>52</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <v>51</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <v>5</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <v>5</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="13">
         <v>22</v>
       </c>
       <c r="O5" s="11">
@@ -873,40 +873,90 @@
       <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>54</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>5</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>53</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>52</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>49</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <v>52</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <v>51</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <v>5</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="13">
         <v>5</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="13">
         <v>22</v>
       </c>
       <c r="O6" s="11">
         <v>13.1</v>
       </c>
       <c r="P6" s="11">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>46078</v>
+      </c>
+      <c r="B7" s="6">
+        <v>46078</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="13">
+        <v>54</v>
+      </c>
+      <c r="F7" s="13">
+        <v>5</v>
+      </c>
+      <c r="G7" s="13">
+        <v>53</v>
+      </c>
+      <c r="H7" s="13">
+        <v>52</v>
+      </c>
+      <c r="I7" s="13">
+        <v>49</v>
+      </c>
+      <c r="J7" s="13">
+        <v>52</v>
+      </c>
+      <c r="K7" s="13">
+        <v>51</v>
+      </c>
+      <c r="L7" s="13">
+        <v>5</v>
+      </c>
+      <c r="M7" s="13">
+        <v>5</v>
+      </c>
+      <c r="N7" s="13">
+        <v>22</v>
+      </c>
+      <c r="O7" s="11">
+        <v>13.1</v>
+      </c>
+      <c r="P7" s="11">
         <v>17.5</v>
       </c>
     </row>
@@ -925,13 +975,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF786EB3-DEA4-49FB-B1F0-2BA953D252F0}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -945,16 +995,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -989,10 +1039,10 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1206,6 +1256,47 @@
         <v>1.2</v>
       </c>
       <c r="M6" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>46078</v>
+      </c>
+      <c r="B7" s="6">
+        <v>46078</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="M7" s="9">
         <v>1.3</v>
       </c>
     </row>
@@ -1223,13 +1314,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6FBB9-AFC2-4455-9148-BD1E8CC7D9AD}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1243,16 +1334,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1287,10 +1378,10 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1504,6 +1595,47 @@
         <v>0.41</v>
       </c>
       <c r="M6" s="4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>46078</v>
+      </c>
+      <c r="B7" s="6">
+        <v>46078</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="M7" s="9">
         <v>0.42</v>
       </c>
     </row>
@@ -1521,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F01E61-2CE9-42E3-8B86-FF77C69F477A}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1538,16 +1670,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1576,10 +1708,10 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1757,6 +1889,38 @@
         <v>0.7</v>
       </c>
       <c r="J6" s="9">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>46078</v>
+      </c>
+      <c r="B7" s="6">
+        <v>46078</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="9">
         <v>0.76</v>
       </c>
     </row>
@@ -1774,13 +1938,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38928A9-57B3-4E00-9ADC-24F31F32D1A1}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1789,51 +1953,51 @@
     <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="15"/>
+    <col min="5" max="6" width="9" style="13"/>
     <col min="7" max="7" width="9" style="11"/>
-    <col min="8" max="9" width="9" style="15"/>
+    <col min="8" max="9" width="9" style="13"/>
     <col min="10" max="10" width="9" style="11"/>
-    <col min="11" max="12" width="9" style="15"/>
+    <col min="11" max="12" width="9" style="13"/>
     <col min="13" max="13" width="9" style="11"/>
     <col min="14" max="21" width="9" style="9"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="M1" s="10" t="s">
@@ -1844,32 +2008,32 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -1897,28 +2061,28 @@
       <c r="D3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>12</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>11</v>
       </c>
       <c r="G3" s="10">
         <v>11.5</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>19</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <v>18</v>
       </c>
       <c r="J3" s="10">
         <v>18.5</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <v>10</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <v>9</v>
       </c>
       <c r="M3" s="10">
@@ -1946,28 +2110,28 @@
       <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>12</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>11</v>
       </c>
       <c r="G4" s="10">
         <v>11.5</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>19</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <v>18</v>
       </c>
       <c r="J4" s="10">
         <v>18.5</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="12">
         <v>10</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <v>9</v>
       </c>
       <c r="M4" s="10">
@@ -1995,28 +2159,28 @@
       <c r="D5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>12</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>11</v>
       </c>
       <c r="G5" s="11">
         <v>11.5</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>19</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>18</v>
       </c>
       <c r="J5" s="11">
         <v>18.5</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <v>10</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <v>9</v>
       </c>
       <c r="M5" s="11">
@@ -2036,31 +2200,72 @@
       <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>12</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>11</v>
       </c>
       <c r="G6" s="11">
         <v>11.5</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>19</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>18</v>
       </c>
       <c r="J6" s="11">
         <v>18.5</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <v>10</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <v>9</v>
       </c>
       <c r="M6" s="11">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>46078</v>
+      </c>
+      <c r="B7" s="6">
+        <v>46078</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="13">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13">
+        <v>11</v>
+      </c>
+      <c r="G7" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="H7" s="13">
+        <v>19</v>
+      </c>
+      <c r="I7" s="13">
+        <v>18</v>
+      </c>
+      <c r="J7" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="K7" s="13">
+        <v>10</v>
+      </c>
+      <c r="L7" s="13">
+        <v>9</v>
+      </c>
+      <c r="M7" s="11">
         <v>9.5</v>
       </c>
     </row>
